--- a/public/files/mau-them-danh-sach-giao-vien.xlsx
+++ b/public/files/mau-them-danh-sach-giao-vien.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="dzu69"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\oes-mvc\public\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAFB1A6-A73D-416D-BE84-3BB654561CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcOnSave="0"/>
+  <calcPr calcId="0" calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1537367192" val="934" rev="123" revOS="4"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>MẪU DANH SÁCH GIÁO VIÊN -  HỆ THỐNG TRẮC NGHIỆM ONLINE</t>
   </si>
@@ -33,21 +38,9 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="0"/>
         <family val="2"/>
-        <sz val="10"/>
-        <b val="0"/>
-        <i val="0"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1537367192">
-              <pm:latin face="Arial" sz="200" weight="normal" i="0"/>
-              <pm:cs/>
-              <pm:ea/>
-            </pm:charSpec>
-          </ext>
-        </extLst>
       </rPr>
       <t xml:space="preserve"> Không sửa mẫu để tránh lỗi khi nhập vào cơ sở dữ liệu</t>
     </r>
@@ -74,9 +67,6 @@
     <t>Giới Tính</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
     <t>giaovien1</t>
   </si>
   <si>
@@ -86,9 +76,6 @@
     <t>Nam</t>
   </si>
   <si>
-    <t>Nguyễn Thị B</t>
-  </si>
-  <si>
     <t>giaovien2</t>
   </si>
   <si>
@@ -96,133 +83,120 @@
   </si>
   <si>
     <t>Nữ</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Thủy</t>
+  </si>
+  <si>
+    <t>Nguyễn Thu Hải</t>
+  </si>
+  <si>
+    <t>giaovien3</t>
+  </si>
+  <si>
+    <t>giaovien3@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức An</t>
+  </si>
+  <si>
+    <t>Phạm Bình Minh</t>
+  </si>
+  <si>
+    <t>giaovien4</t>
+  </si>
+  <si>
+    <t>giaovien4@gmail.com</t>
+  </si>
+  <si>
+    <t>Vũ Thanh Xuân</t>
+  </si>
+  <si>
+    <t>giaovien5</t>
+  </si>
+  <si>
+    <t>giaovien5@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
-    <numFmt numFmtId="5" formatCode="#,##0\ &quot;$&quot;;\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;$&quot;;[Red]\-#,##0\ &quot;$&quot;"/>
-    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;$&quot;;\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;$&quot;;[Red]\-#,##0.00\ &quot;$&quot;"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;$&quot;_-;\-* #,##0\ &quot;$&quot;_-;_-* &quot;-&quot;\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _$_-;\-* #,##0\ _$_-;_-* &quot;-&quot;\ _$_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _$_-;\-* #,##0.00\ _$_-;_-* &quot;-&quot;??\ _$_-;_-@_-"/>
-    <numFmt numFmtId="14" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="164" formatCode="YYYY\-MM\-DD"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1537367192" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b/>
-      <color rgb="FF000000"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1537367192" ulstyle="none" kern="1">
-            <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
-            <pm:cs face="Times New Roman" sz="200" lang="default"/>
-            <pm:ea face="SimSun" sz="200" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1537367192" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1537367192"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1537367192"/>
-        </ext>
-      </extLst>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
     <ext uri="smNativeData">
       <pm:charStyles xmlns:pm="smNativeData" id="1537367192" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
@@ -243,10 +217,10 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -275,14 +249,108 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="SimSun"/>
-        <a:cs typeface="Times New Roman"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,30 +526,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.621622" customWidth="1"/>
-    <col min="2" max="2" width="15.945946" customWidth="1"/>
-    <col min="3" max="3" width="14.864865" customWidth="1"/>
-    <col min="4" max="4" width="20.270270" customWidth="1"/>
-    <col min="5" max="5" width="15.279279" customWidth="1"/>
-    <col min="6" max="6" width="13.378378" customWidth="1"/>
-    <col min="7" max="7" width="10.540541" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -489,7 +557,7 @@
       <c r="C2"/>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -512,75 +580,129 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4">
+        <v>123456</v>
+      </c>
+      <c r="F4" s="3">
+        <v>35449</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="n">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
         <v>123456</v>
       </c>
-      <c r="F4" s="3" t="n">
-        <v>35449</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
+      <c r="F5" s="3">
+        <v>35450</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>123456</v>
+      </c>
+      <c r="F6" s="3">
+        <v>34566</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="n">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
         <v>123456</v>
       </c>
-      <c r="F5" s="3" t="n">
-        <v>35450</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
+      <c r="F7" s="5">
+        <v>34803</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="6:6">
-      <c r="F6" s="4"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>123456</v>
+      </c>
+      <c r="F8" s="5">
+        <v>36630</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1537367192" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
-      </ext>
-    </extLst>
-  </printOptions>
-  <pageMargins left="0.787500" right="0.787500" top="0.787500" bottom="0.787500" header="0.393750" footer="0.393750"/>
-  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
-  <headerFooter>
-    <extLst>
-      <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1537367192" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1537367192" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1537367192" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1537367192" Id="1" type="0" value="0"/>
-      </ext>
-    </extLst>
-  </headerFooter>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{D9C719A0-1553-493E-8B3B-F8F9488195C2}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{DCAFE699-0A62-42A1-968E-36B168F997A9}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{FAA1DB8C-FA01-4123-BD79-09CD982E3A97}"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.39374999999999999" footer="0.39374999999999999"/>
+  <pageSetup fitToWidth="0" pageOrder="overThenDown" orientation="portrait" r:id="rId4"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1537367192" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
